--- a/medicine/Mort/Monument_funéraire_de_Jacques-Auguste_de_Thou/Monument_funéraire_de_Jacques-Auguste_de_Thou.xlsx
+++ b/medicine/Mort/Monument_funéraire_de_Jacques-Auguste_de_Thou/Monument_funéraire_de_Jacques-Auguste_de_Thou.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Monument_fun%C3%A9raire_de_Jacques-Auguste_de_Thou</t>
+          <t>Monument_funéraire_de_Jacques-Auguste_de_Thou</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le monument funéraire de Jacques-Auguste de Thou est un groupe sculpté en marbre et en bronze réalisé par François Anguier entre 1644 et 1645 pour le tombeau de Jacques-Auguste de Thou. Le monument est actuellement conservé au musée du Louvre.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Monument_fun%C3%A9raire_de_Jacques-Auguste_de_Thou</t>
+          <t>Monument_funéraire_de_Jacques-Auguste_de_Thou</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Contexte de la création</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce monument est le premier de l'artiste à son retour en France. L'histoire du monument témoigne d'un climat politique assez compliqué. De Thou était président à mortier, magistrat, grand maître de la bibliothèque du roi et historien. Il a écrit une histoire de son temps en latin, évoquant les guerres de religion, en tentant d'adopter un point de vue objectif, ce qui n'a pas plu à Marie de Médicis. Il meurt ainsi dans l'opprobre. Son fils François sera même décapité car impliqué dans une conjuration contre Richelieu. 
 C'est donc le fils cadet qui commande ce monument pour redorer le blason de sa famille. Le monument est ainsi commandé des années après la mort du défunt. Il fut réalisé pour la Chapelle des Thou.
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Monument_fun%C3%A9raire_de_Jacques-Auguste_de_Thou</t>
+          <t>Monument_funéraire_de_Jacques-Auguste_de_Thou</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le monument présente une composition sur deux niveaux. Au premier niveau se trouve un soubassement sur lequel repose un sarcophage. Assis sur le sarcophage, deux atlantes encadrant un cartouche, aujourd'hui martelé. Au centre, une femme ailée qui grave le titre de l'ouvrage de Thou sur un médaillon. Il s'agit d'une Victoire reprenant les traits de l'allégorie de la Renommée (selon Cesare Ripa, avec la trompette et la couronne de laurier). Il s'agit donc là d'un rappel de la vocation d'historien de Thou. Les enfants à côté tiennent divers objets, des éléments évoquant la Justice. Et au-dessus, une autruche, autre symbole de justice car on pensait alors que toutes ses plumes étaient de longueur égale. À gauche, d'autres enfants qui jouent avec des ouvrages évoquant la fonction de gardien de bibliothèque de Thou.
 Stylistiquement, le drapé et le physique de la Victoire sont très inspirés par l'Antiquité. De même que les putti, dans une certaine évocation de Duquesnoy.
